--- a/data/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/data/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -519,7 +519,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -550,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -701,7 +701,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -763,7 +763,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -856,7 +856,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -887,7 +887,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -918,7 +918,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -949,7 +949,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2029,7 +2029,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3113,7 +3113,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -3755,7 +3755,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -3875,7 +3875,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -3960,7 +3960,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4235,7 +4235,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -4475,7 +4475,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -4599,7 +4599,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">

--- a/data/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/data/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5218,6 +5218,397 @@
       </c>
       <c r="I159" t="inlineStr"/>
     </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>44761.00046296296</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.405</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>200</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="n">
+        <v>44789.00046296296</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>6.500</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>200</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="n">
+        <v>44852.00046296296</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4.650</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>200</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="n">
+        <v>44887.00046296296</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>4.350</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>200</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="n">
+        <v>44914.00046296296</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.450</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>200</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C165" s="2" t="n">
+        <v>44950.00046296296</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>5.500</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>200</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="n">
+        <v>44978.00046296296</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.550</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>200</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C167" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.389</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>200</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>104.44</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>200</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>5.180</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>200</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="n">
+        <v>45042.00046296296</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>70.000</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>200</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="n">
+        <v>45062.00046296296</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>6.000</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>200</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Tokiahuru at Karioi Domain Road</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="n">
+        <v>45097.00046296296</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>29.500</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>200</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
+++ b/data/Rivers/TokiahuruatKarioiDomainRoad_fbb01f517c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="143">
   <si>
     <t>site name</t>
   </si>
@@ -428,6 +428,18 @@
   </si>
   <si>
     <t>29.500</t>
+  </si>
+  <si>
+    <t>2.950</t>
+  </si>
+  <si>
+    <t>0.482</t>
+  </si>
+  <si>
+    <t>116.52</t>
+  </si>
+  <si>
+    <t>4.684</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -792,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,7 +870,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -878,7 +890,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -915,7 +927,7 @@
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -935,7 +947,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -955,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -975,7 +987,7 @@
         <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -995,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1015,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -1035,7 +1047,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1055,7 +1067,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1075,7 +1087,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1095,7 +1107,7 @@
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -1115,7 +1127,7 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1152,7 +1164,7 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -1206,7 +1218,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -1226,7 +1238,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -1246,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1266,7 +1278,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -1286,7 +1298,7 @@
         <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -1306,7 +1318,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -1326,7 +1338,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1346,7 +1358,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -1366,7 +1378,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1386,7 +1398,7 @@
         <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1423,7 +1435,7 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -1477,7 +1489,7 @@
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1497,7 +1509,7 @@
         <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -1517,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -1537,7 +1549,7 @@
         <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -1557,7 +1569,7 @@
         <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -1577,7 +1589,7 @@
         <v>50</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H40">
         <v>200</v>
@@ -1597,7 +1609,7 @@
         <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -1617,7 +1629,7 @@
         <v>51</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H42">
         <v>200</v>
@@ -1637,7 +1649,7 @@
         <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H43">
         <v>200</v>
@@ -1657,7 +1669,7 @@
         <v>53</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H44">
         <v>200</v>
@@ -1677,7 +1689,7 @@
         <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -1697,7 +1709,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H46">
         <v>200</v>
@@ -1717,7 +1729,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H47">
         <v>200</v>
@@ -1788,7 +1800,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -1808,7 +1820,7 @@
         <v>59</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H52">
         <v>200</v>
@@ -1828,7 +1840,7 @@
         <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H53">
         <v>200</v>
@@ -1848,7 +1860,7 @@
         <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H54">
         <v>200</v>
@@ -1868,7 +1880,7 @@
         <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H55">
         <v>200</v>
@@ -1888,7 +1900,7 @@
         <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H56">
         <v>200</v>
@@ -1908,7 +1920,7 @@
         <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H57">
         <v>200</v>
@@ -1928,7 +1940,7 @@
         <v>64</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H58">
         <v>200</v>
@@ -1948,7 +1960,7 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H59">
         <v>200</v>
@@ -1968,7 +1980,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H60">
         <v>200</v>
@@ -1988,7 +2000,7 @@
         <v>65</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H61">
         <v>200</v>
@@ -2008,7 +2020,7 @@
         <v>66</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -2079,7 +2091,7 @@
         <v>70</v>
       </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H66">
         <v>200</v>
@@ -2099,7 +2111,7 @@
         <v>66</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H67">
         <v>200</v>
@@ -2119,7 +2131,7 @@
         <v>71</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -2139,7 +2151,7 @@
         <v>65</v>
       </c>
       <c r="G69" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H69">
         <v>200</v>
@@ -2159,7 +2171,7 @@
         <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H70">
         <v>200</v>
@@ -2179,7 +2191,7 @@
         <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H71">
         <v>200</v>
@@ -2199,7 +2211,7 @@
         <v>53</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H72">
         <v>200</v>
@@ -2219,7 +2231,7 @@
         <v>44</v>
       </c>
       <c r="G73" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H73">
         <v>200</v>
@@ -2239,7 +2251,7 @@
         <v>74</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H74">
         <v>200</v>
@@ -2310,7 +2322,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H78">
         <v>200</v>
@@ -2330,7 +2342,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H79">
         <v>200</v>
@@ -2350,7 +2362,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H80">
         <v>200</v>
@@ -2370,7 +2382,7 @@
         <v>81</v>
       </c>
       <c r="G81" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H81">
         <v>200</v>
@@ -2390,7 +2402,7 @@
         <v>82</v>
       </c>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H82">
         <v>200</v>
@@ -2410,7 +2422,7 @@
         <v>83</v>
       </c>
       <c r="G83" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H83">
         <v>200</v>
@@ -2430,7 +2442,7 @@
         <v>60</v>
       </c>
       <c r="G84" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H84">
         <v>200</v>
@@ -2450,7 +2462,7 @@
         <v>55</v>
       </c>
       <c r="G85" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H85">
         <v>200</v>
@@ -2470,7 +2482,7 @@
         <v>84</v>
       </c>
       <c r="G86" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H86">
         <v>200</v>
@@ -2643,7 +2655,7 @@
         <v>60</v>
       </c>
       <c r="G96" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H96">
         <v>200</v>
@@ -2663,7 +2675,7 @@
         <v>94</v>
       </c>
       <c r="G97" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H97">
         <v>200</v>
@@ -2683,7 +2695,7 @@
         <v>55</v>
       </c>
       <c r="G98" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H98">
         <v>200</v>
@@ -2703,7 +2715,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H99">
         <v>200</v>
@@ -2723,7 +2735,7 @@
         <v>55</v>
       </c>
       <c r="G100" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H100">
         <v>200</v>
@@ -2743,7 +2755,7 @@
         <v>53</v>
       </c>
       <c r="G101" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H101">
         <v>200</v>
@@ -2763,7 +2775,7 @@
         <v>95</v>
       </c>
       <c r="G102" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H102">
         <v>200</v>
@@ -2834,7 +2846,7 @@
         <v>64</v>
       </c>
       <c r="G106" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H106">
         <v>200</v>
@@ -2854,7 +2866,7 @@
         <v>64</v>
       </c>
       <c r="G107" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H107">
         <v>200</v>
@@ -2874,7 +2886,7 @@
         <v>98</v>
       </c>
       <c r="G108" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H108">
         <v>200</v>
@@ -2894,7 +2906,7 @@
         <v>20</v>
       </c>
       <c r="G109" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H109">
         <v>200</v>
@@ -2914,7 +2926,7 @@
         <v>99</v>
       </c>
       <c r="G110" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H110">
         <v>200</v>
@@ -2934,7 +2946,7 @@
         <v>63</v>
       </c>
       <c r="G111" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H111">
         <v>200</v>
@@ -2954,7 +2966,7 @@
         <v>52</v>
       </c>
       <c r="G112" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H112">
         <v>200</v>
@@ -2974,7 +2986,7 @@
         <v>79</v>
       </c>
       <c r="G113" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H113">
         <v>200</v>
@@ -3045,7 +3057,7 @@
         <v>103</v>
       </c>
       <c r="G117" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H117">
         <v>200</v>
@@ -3065,7 +3077,7 @@
         <v>104</v>
       </c>
       <c r="G118" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H118">
         <v>200</v>
@@ -3085,7 +3097,7 @@
         <v>72</v>
       </c>
       <c r="G119" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H119">
         <v>200</v>
@@ -3105,7 +3117,7 @@
         <v>105</v>
       </c>
       <c r="G120" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H120">
         <v>200</v>
@@ -3125,7 +3137,7 @@
         <v>20</v>
       </c>
       <c r="G121" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H121">
         <v>200</v>
@@ -3145,7 +3157,7 @@
         <v>106</v>
       </c>
       <c r="G122" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H122">
         <v>200</v>
@@ -3165,7 +3177,7 @@
         <v>107</v>
       </c>
       <c r="G123" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H123">
         <v>200</v>
@@ -3185,7 +3197,7 @@
         <v>108</v>
       </c>
       <c r="G124" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H124">
         <v>200</v>
@@ -3205,7 +3217,7 @@
         <v>109</v>
       </c>
       <c r="G125" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H125">
         <v>200</v>
@@ -3276,7 +3288,7 @@
         <v>61</v>
       </c>
       <c r="G129" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H129">
         <v>200</v>
@@ -3296,7 +3308,7 @@
         <v>99</v>
       </c>
       <c r="G130" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H130">
         <v>200</v>
@@ -3316,7 +3328,7 @@
         <v>113</v>
       </c>
       <c r="G131" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H131">
         <v>200</v>
@@ -3336,7 +3348,7 @@
         <v>114</v>
       </c>
       <c r="G132" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H132">
         <v>200</v>
@@ -3356,7 +3368,7 @@
         <v>115</v>
       </c>
       <c r="G133" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H133">
         <v>200</v>
@@ -3376,7 +3388,7 @@
         <v>116</v>
       </c>
       <c r="G134" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H134">
         <v>200</v>
@@ -3396,7 +3408,7 @@
         <v>83</v>
       </c>
       <c r="G135" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H135">
         <v>200</v>
@@ -3416,7 +3428,7 @@
         <v>117</v>
       </c>
       <c r="G136" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H136">
         <v>200</v>
@@ -3436,7 +3448,7 @@
         <v>62</v>
       </c>
       <c r="G137" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H137">
         <v>200</v>
@@ -3456,7 +3468,7 @@
         <v>66</v>
       </c>
       <c r="G138" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H138">
         <v>200</v>
@@ -3476,7 +3488,7 @@
         <v>118</v>
       </c>
       <c r="G139" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H139">
         <v>200</v>
@@ -3547,7 +3559,7 @@
         <v>72</v>
       </c>
       <c r="G143" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H143">
         <v>200</v>
@@ -3567,7 +3579,7 @@
         <v>109</v>
       </c>
       <c r="G144" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H144">
         <v>200</v>
@@ -3587,7 +3599,7 @@
         <v>104</v>
       </c>
       <c r="G145" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H145">
         <v>200</v>
@@ -3607,7 +3619,7 @@
         <v>122</v>
       </c>
       <c r="G146" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H146">
         <v>200</v>
@@ -3627,7 +3639,7 @@
         <v>80</v>
       </c>
       <c r="G147" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H147">
         <v>200</v>
@@ -3647,7 +3659,7 @@
         <v>123</v>
       </c>
       <c r="G148" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H148">
         <v>200</v>
@@ -3667,7 +3679,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H149">
         <v>200</v>
@@ -3687,7 +3699,7 @@
         <v>72</v>
       </c>
       <c r="G150" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H150">
         <v>200</v>
@@ -3707,7 +3719,7 @@
         <v>124</v>
       </c>
       <c r="G151" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H151">
         <v>200</v>
@@ -3778,7 +3790,7 @@
         <v>127</v>
       </c>
       <c r="G155" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H155">
         <v>200</v>
@@ -3798,7 +3810,7 @@
         <v>95</v>
       </c>
       <c r="G156" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H156">
         <v>200</v>
@@ -3818,7 +3830,7 @@
         <v>128</v>
       </c>
       <c r="G157" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H157">
         <v>200</v>
@@ -3838,7 +3850,7 @@
         <v>74</v>
       </c>
       <c r="G158" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H158">
         <v>200</v>
@@ -3858,7 +3870,7 @@
         <v>51</v>
       </c>
       <c r="G159" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H159">
         <v>200</v>
@@ -3878,7 +3890,7 @@
         <v>129</v>
       </c>
       <c r="G160" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H160">
         <v>200</v>
@@ -3898,7 +3910,7 @@
         <v>19</v>
       </c>
       <c r="G161" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H161">
         <v>200</v>
@@ -3918,7 +3930,7 @@
         <v>130</v>
       </c>
       <c r="G162" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H162">
         <v>200</v>
@@ -3938,7 +3950,7 @@
         <v>131</v>
       </c>
       <c r="G163" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H163">
         <v>200</v>
@@ -3958,7 +3970,7 @@
         <v>132</v>
       </c>
       <c r="G164" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H164">
         <v>200</v>
@@ -3978,7 +3990,7 @@
         <v>44</v>
       </c>
       <c r="G165" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H165">
         <v>200</v>
@@ -3998,7 +4010,7 @@
         <v>133</v>
       </c>
       <c r="G166" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H166">
         <v>200</v>
@@ -4069,7 +4081,7 @@
         <v>99</v>
       </c>
       <c r="G170" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H170">
         <v>200</v>
@@ -4089,7 +4101,7 @@
         <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H171">
         <v>200</v>
@@ -4109,9 +4121,160 @@
         <v>137</v>
       </c>
       <c r="G172" t="s">
+        <v>142</v>
+      </c>
+      <c r="H172">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45132.00046296296</v>
+      </c>
+      <c r="D173" t="s">
+        <v>60</v>
+      </c>
+      <c r="G173" t="s">
+        <v>142</v>
+      </c>
+      <c r="H173">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45188.00046296296</v>
+      </c>
+      <c r="D174" t="s">
+        <v>27</v>
+      </c>
+      <c r="G174" t="s">
+        <v>142</v>
+      </c>
+      <c r="H174">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45251.00046296296</v>
+      </c>
+      <c r="D175" t="s">
         <v>138</v>
       </c>
-      <c r="H172">
+      <c r="G175" t="s">
+        <v>142</v>
+      </c>
+      <c r="H175">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45279.00046296296</v>
+      </c>
+      <c r="D176" t="s">
+        <v>38</v>
+      </c>
+      <c r="G176" t="s">
+        <v>142</v>
+      </c>
+      <c r="H176">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45314.00046296296</v>
+      </c>
+      <c r="D177" t="s">
+        <v>49</v>
+      </c>
+      <c r="G177" t="s">
+        <v>142</v>
+      </c>
+      <c r="H177">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45341.42206018518</v>
+      </c>
+      <c r="D178" t="s">
+        <v>139</v>
+      </c>
+      <c r="H178">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45341.42206018518</v>
+      </c>
+      <c r="D179" t="s">
+        <v>140</v>
+      </c>
+      <c r="H179">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45341.42206018518</v>
+      </c>
+      <c r="D180" t="s">
+        <v>141</v>
+      </c>
+      <c r="H180">
         <v>200</v>
       </c>
     </row>
